--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\util9488\Documents\Bazar\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE4B0F9-6861-47FF-9C40-4A7C432E9D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253E6BBC-04FD-4C46-9898-D6549BE641AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51B93C0D-91DE-41DA-96F9-55AF17184225}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>minDamage</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>upgrade cost sum</t>
-  </si>
-  <si>
-    <t>damageMax</t>
-  </si>
-  <si>
-    <t>damageMin</t>
   </si>
   <si>
     <t>auto item price</t>
@@ -106,6 +100,36 @@
   </si>
   <si>
     <t>not costs but can be useful</t>
+  </si>
+  <si>
+    <t>upgrade damageMax</t>
+  </si>
+  <si>
+    <t>upgrade damageMin</t>
+  </si>
+  <si>
+    <t>itemCost*1,65^(item.upgradeLevel+1)</t>
+  </si>
+  <si>
+    <t>item.upgradeLevel is 0 by default</t>
+  </si>
+  <si>
+    <t>(item.minDamage+itemmaxDamage)*10*1,05^(item.requiredLevel)</t>
+  </si>
+  <si>
+    <t>item.baseMaxDamage*1,104^(item.upgradeLevel+1) OR item.maxDamage*1,104</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>item.maxDamage*(item.baseMinDamage/item.baseMaxDamage)</t>
+  </si>
+  <si>
+    <t>if item.requiredLevel == null   then = 1</t>
   </si>
 </sst>
 </file>
@@ -227,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -277,45 +301,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -331,15 +316,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,46 +333,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,6 +362,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -756,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2E7075-6EEC-4231-B72B-F980D7F4CE35}">
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:AD95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -775,20 +736,20 @@
     <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="16"/>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,39 +763,42 @@
         <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="5"/>
-      <c r="S1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="21"/>
-    </row>
-    <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="S1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="17"/>
+      <c r="V1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+    </row>
+    <row r="2" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <f>259</f>
         <v>259</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="4">
         <f>389</f>
         <v>389</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="5">
         <v>1.1040000000000001</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f>L14</f>
         <v>121041.12459391677</v>
       </c>
@@ -846,7 +810,7 @@
         <f>SUM($H$2:H2)</f>
         <v>199718</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>1.65</v>
       </c>
       <c r="L2" s="1">
@@ -857,11 +821,11 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="9">
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>1</f>
         <v>1</v>
@@ -874,11 +838,10 @@
         <f>ROUND($C$2*D3,0)</f>
         <v>429</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="1">
         <f>$D$2^(A3)</f>
         <v>1.1040000000000001</v>
       </c>
-      <c r="E3" s="11"/>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" si="0">ROUND($G$2*J3,0)</f>
         <v>329534</v>
@@ -903,12 +866,28 @@
         <f>L3*$O$2</f>
         <v>9924.3654300000017</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="3"/>
+    </row>
+    <row r="4" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -950,7 +929,7 @@
         <v>12666.284617821386</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A68" si="6">A4+1</f>
         <v>3</v>
@@ -991,12 +970,26 @@
         <f t="shared" si="5"/>
         <v>16165.745523102796</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="6"/>
+      <c r="U5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+    </row>
+    <row r="6" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -1038,7 +1031,7 @@
         <v>20632.042955203015</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -1079,12 +1072,26 @@
         <f t="shared" si="5"/>
         <v>26332.296020433623</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+    </row>
+    <row r="8" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -1126,7 +1133,7 @@
         <v>33607.42390917155</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -1171,12 +1178,26 @@
         <f t="shared" si="5"/>
         <v>42892.535498397345</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+    </row>
+    <row r="10" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -1218,7 +1239,7 @@
         <v>54742.952225481269</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -1260,7 +1281,7 @@
         <v>69867.420602200102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -1302,7 +1323,7 @@
         <v>89170.50073402065</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -1344,7 +1365,7 @@
         <v>113806.66600572328</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -1386,7 +1407,7 @@
         <v>145249.34951270011</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -1416,10 +1437,10 @@
         <v>1108.6008799949946</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="6"/>
         <v>14</v>
@@ -1508,13 +1529,13 @@
         <f t="shared" si="4"/>
         <v>4979.9737280475138</v>
       </c>
-      <c r="L18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="L18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1546,23 +1567,23 @@
         <f t="shared" si="4"/>
         <v>8216.9566512783986</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="24" t="s">
+      <c r="O19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="P19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="26" t="s">
+      <c r="Q19" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="28" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1594,22 +1615,22 @@
         <f t="shared" si="4"/>
         <v>13557.978474609357</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="11">
         <v>0.95</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="11">
         <v>1</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="11">
         <v>1.05</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="11">
         <v>1.2</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="11">
         <v>1.4</v>
       </c>
     </row>
@@ -1702,12 +1723,12 @@
         <f t="shared" si="4"/>
         <v>60904.134055254544</v>
       </c>
-      <c r="L23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="9"/>
+      <c r="L23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="16"/>
       <c r="Q23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3871,7 +3892,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="V9:AA9"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="V3:AA3"/>
     <mergeCell ref="L18:Q18"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="S1:T1"/>
